--- a/spliced/walkingToRunning/2023-03-30_14-25-40/data_selected.xlsx
+++ b/spliced/walkingToRunning/2023-03-30_14-25-40/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.5500836372375488</v>
+        <v>13.38702964782715</v>
       </c>
       <c r="D2" t="n">
-        <v>-15.08346462249756</v>
+        <v>-17.40622901916504</v>
       </c>
       <c r="E2" t="n">
-        <v>-15.06772136688232</v>
+        <v>-7.910804748535156</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.3082007866205247</v>
+        <v>-1.239354553595497</v>
       </c>
       <c r="G2" t="n">
-        <v>0.7599403564100159</v>
+        <v>0.5934752043385932</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.08199426098537477</v>
+        <v>1.315698351103824</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-1.728771805763245</v>
+        <v>5.027063369750977</v>
       </c>
       <c r="D3" t="n">
-        <v>-9.532985687255859</v>
+        <v>-9.992935180664062</v>
       </c>
       <c r="E3" t="n">
-        <v>-9.297476768493652</v>
+        <v>-3.668930053710938</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.055030976098011</v>
+        <v>0.1265866749218411</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1118559832089666</v>
+        <v>0.9830147470409047</v>
       </c>
       <c r="H3" t="n">
-        <v>2.441823707278079</v>
+        <v>1.104435794153933</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-3.154151678085327</v>
+        <v>3.064489126205444</v>
       </c>
       <c r="D4" t="n">
-        <v>-6.908271789550781</v>
+        <v>-10.04933261871338</v>
       </c>
       <c r="E4" t="n">
-        <v>-13.69534873962402</v>
+        <v>-9.655683517456056</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.9488142382205837</v>
+        <v>0.2933733014283093</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.6367879311681333</v>
+        <v>0.4318224985956808</v>
       </c>
       <c r="H4" t="n">
-        <v>2.219774765590215</v>
+        <v>1.679565984772173</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13.38702964782715</v>
+        <v>-11.23465538024902</v>
       </c>
       <c r="D5" t="n">
-        <v>-17.40622901916504</v>
+        <v>-9.59632682800293</v>
       </c>
       <c r="E5" t="n">
-        <v>-7.910804748535156</v>
+        <v>-12.52409744262695</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.239354553595497</v>
+        <v>-0.3514636487162646</v>
       </c>
       <c r="G5" t="n">
-        <v>0.5934752043385932</v>
+        <v>1.303912767754777</v>
       </c>
       <c r="H5" t="n">
-        <v>1.315698351103824</v>
+        <v>1.717408596215416</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5.027063369750977</v>
+        <v>0.3307132720947265</v>
       </c>
       <c r="D6" t="n">
-        <v>-9.992935180664062</v>
+        <v>-10.98133277893066</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.668930053710938</v>
+        <v>-7.000489711761475</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1265866749218411</v>
+        <v>-0.8439442796328934</v>
       </c>
       <c r="G6" t="n">
-        <v>0.9830147470409047</v>
+        <v>1.107491066802433</v>
       </c>
       <c r="H6" t="n">
-        <v>1.104435794153933</v>
+        <v>-0.297189421712284</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3.064489126205444</v>
+        <v>15.33979511260986</v>
       </c>
       <c r="D7" t="n">
-        <v>-10.04933261871338</v>
+        <v>-22.00781440734864</v>
       </c>
       <c r="E7" t="n">
-        <v>-9.655683517456056</v>
+        <v>-10.50343608856201</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2933733014283093</v>
+        <v>1.054603315660084</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4318224985956808</v>
+        <v>-0.3611965101983832</v>
       </c>
       <c r="H7" t="n">
-        <v>1.679565984772173</v>
+        <v>-2.38295376773451</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-11.23465538024902</v>
+        <v>2.999754428863525</v>
       </c>
       <c r="D8" t="n">
-        <v>-9.59632682800293</v>
+        <v>-15.48295783996582</v>
       </c>
       <c r="E8" t="n">
-        <v>-12.52409744262695</v>
+        <v>6.745935916900635</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.3514636487162646</v>
+        <v>1.400082142342559</v>
       </c>
       <c r="G8" t="n">
-        <v>1.303912767754777</v>
+        <v>-1.373465267046946</v>
       </c>
       <c r="H8" t="n">
-        <v>1.717408596215416</v>
+        <v>-4.113783430948127</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.3307132720947265</v>
+        <v>-6.992471218109131</v>
       </c>
       <c r="D9" t="n">
-        <v>-10.98133277893066</v>
+        <v>1.269168853759766</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.000489711761475</v>
+        <v>-5.262283325195312</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8439442796328934</v>
+        <v>2.811405012786107</v>
       </c>
       <c r="G9" t="n">
-        <v>1.107491066802433</v>
+        <v>2.239890750284216</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.297189421712284</v>
+        <v>-2.48325762769725</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>15.33979511260986</v>
+        <v>1.578595161437989</v>
       </c>
       <c r="D10" t="n">
-        <v>-22.00781440734864</v>
+        <v>-59.7728385925293</v>
       </c>
       <c r="E10" t="n">
-        <v>-10.50343608856201</v>
+        <v>11.89765167236328</v>
       </c>
       <c r="F10" t="n">
-        <v>1.054603315660084</v>
+        <v>1.144158274066543</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.3611965101983832</v>
+        <v>0.4079549139291005</v>
       </c>
       <c r="H10" t="n">
-        <v>-2.38295376773451</v>
+        <v>-2.216124885407739</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.999754428863525</v>
+        <v>-58.78142929077149</v>
       </c>
       <c r="D11" t="n">
-        <v>-15.48295783996582</v>
+        <v>-6.325687885284424</v>
       </c>
       <c r="E11" t="n">
-        <v>6.745935916900635</v>
+        <v>-18.43083572387696</v>
       </c>
       <c r="F11" t="n">
-        <v>1.400082142342559</v>
+        <v>-3.973825000981487</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.373465267046946</v>
+        <v>-4.923421618171759</v>
       </c>
       <c r="H11" t="n">
-        <v>-4.113783430948127</v>
+        <v>5.359984481912402</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-6.992471218109131</v>
+        <v>1.685664176940918</v>
       </c>
       <c r="D12" t="n">
-        <v>1.269168853759766</v>
+        <v>-10.93907737731934</v>
       </c>
       <c r="E12" t="n">
-        <v>-5.262283325195312</v>
+        <v>-4.804312705993652</v>
       </c>
       <c r="F12" t="n">
-        <v>2.811405012786107</v>
+        <v>-10.63765511113626</v>
       </c>
       <c r="G12" t="n">
-        <v>2.239890750284216</v>
+        <v>-7.195822839694799</v>
       </c>
       <c r="H12" t="n">
-        <v>-2.48325762769725</v>
+        <v>9.095965221589761</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.578595161437989</v>
+        <v>20.54140090942383</v>
       </c>
       <c r="D13" t="n">
-        <v>-59.7728385925293</v>
+        <v>-30.76116371154785</v>
       </c>
       <c r="E13" t="n">
-        <v>11.89765167236328</v>
+        <v>-21.73070907592773</v>
       </c>
       <c r="F13" t="n">
-        <v>1.144158274066543</v>
+        <v>3.433085498305679</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4079549139291005</v>
+        <v>4.357403949493808</v>
       </c>
       <c r="H13" t="n">
-        <v>-2.216124885407739</v>
+        <v>-2.281185732013872</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-58.78142929077149</v>
+        <v>-8.643145561218262</v>
       </c>
       <c r="D14" t="n">
-        <v>-6.325687885284424</v>
+        <v>-12.25782108306885</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.43083572387696</v>
+        <v>13.20825862884522</v>
       </c>
       <c r="F14" t="n">
-        <v>-3.973825000981487</v>
+        <v>4.477401155732298</v>
       </c>
       <c r="G14" t="n">
-        <v>-4.923421618171759</v>
+        <v>-3.086138354523986</v>
       </c>
       <c r="H14" t="n">
-        <v>5.359984481912402</v>
+        <v>-4.067132330150736</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.685664176940918</v>
+        <v>-1.923628926277161</v>
       </c>
       <c r="D15" t="n">
-        <v>-10.93907737731934</v>
+        <v>-1.592215418815613</v>
       </c>
       <c r="E15" t="n">
-        <v>-4.804312705993652</v>
+        <v>-5.497756004333496</v>
       </c>
       <c r="F15" t="n">
-        <v>-10.63765511113626</v>
+        <v>5.366742232297456</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.195822839694799</v>
+        <v>3.331075757610629</v>
       </c>
       <c r="H15" t="n">
-        <v>9.095965221589761</v>
+        <v>1.803214041672062</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.54140090942383</v>
+        <v>23.09793281555176</v>
       </c>
       <c r="D16" t="n">
-        <v>-30.76116371154785</v>
+        <v>-65.25662231445312</v>
       </c>
       <c r="E16" t="n">
-        <v>-21.73070907592773</v>
+        <v>1.447998523712158</v>
       </c>
       <c r="F16" t="n">
-        <v>3.433085498305679</v>
+        <v>0.746474412569362</v>
       </c>
       <c r="G16" t="n">
-        <v>4.357403949493808</v>
+        <v>1.614592228954578</v>
       </c>
       <c r="H16" t="n">
-        <v>-2.281185732013872</v>
+        <v>-2.489844009214525</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-8.643145561218262</v>
+        <v>13.40246772766113</v>
       </c>
       <c r="D17" t="n">
-        <v>-12.25782108306885</v>
+        <v>-2.679043769836426</v>
       </c>
       <c r="E17" t="n">
-        <v>13.20825862884522</v>
+        <v>-17.18461418151855</v>
       </c>
       <c r="F17" t="n">
-        <v>4.477401155732298</v>
+        <v>-4.899446143452909</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.086138354523986</v>
+        <v>0.4346358306082141</v>
       </c>
       <c r="H17" t="n">
-        <v>-4.067132330150736</v>
+        <v>4.76701935377427</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.923628926277161</v>
+        <v>-13.39319038391113</v>
       </c>
       <c r="D18" t="n">
-        <v>-1.592215418815613</v>
+        <v>-15.08681869506836</v>
       </c>
       <c r="E18" t="n">
-        <v>-5.497756004333496</v>
+        <v>-24.70808029174805</v>
       </c>
       <c r="F18" t="n">
-        <v>5.366742232297456</v>
+        <v>-9.7976465981438</v>
       </c>
       <c r="G18" t="n">
-        <v>3.331075757610629</v>
+        <v>3.087984385994603</v>
       </c>
       <c r="H18" t="n">
-        <v>1.803214041672062</v>
+        <v>-1.579483953341611</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>23.09793281555176</v>
+        <v>47.38216018676758</v>
       </c>
       <c r="D19" t="n">
-        <v>-65.25662231445312</v>
+        <v>-81.48814392089844</v>
       </c>
       <c r="E19" t="n">
-        <v>1.447998523712158</v>
+        <v>17.70297622680664</v>
       </c>
       <c r="F19" t="n">
-        <v>0.746474412569362</v>
+        <v>-0.5613160348673585</v>
       </c>
       <c r="G19" t="n">
-        <v>1.614592228954578</v>
+        <v>0.9123670508682955</v>
       </c>
       <c r="H19" t="n">
-        <v>-2.489844009214525</v>
+        <v>0.6450322871691367</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>13.40246772766113</v>
+        <v>-2.278211832046509</v>
       </c>
       <c r="D20" t="n">
-        <v>-2.679043769836426</v>
+        <v>0.415550947189331</v>
       </c>
       <c r="E20" t="n">
-        <v>-17.18461418151855</v>
+        <v>-10.76592063903809</v>
       </c>
       <c r="F20" t="n">
-        <v>-4.899446143452909</v>
+        <v>2.186993496270989</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4346358306082141</v>
+        <v>-7.507715720437281</v>
       </c>
       <c r="H20" t="n">
-        <v>4.76701935377427</v>
+        <v>1.97455261667396</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-13.39319038391113</v>
+        <v>13.07781982421875</v>
       </c>
       <c r="D21" t="n">
-        <v>-15.08681869506836</v>
+        <v>-39.51717376708984</v>
       </c>
       <c r="E21" t="n">
-        <v>-24.70808029174805</v>
+        <v>42.08852005004883</v>
       </c>
       <c r="F21" t="n">
-        <v>-9.7976465981438</v>
+        <v>2.968808529135423</v>
       </c>
       <c r="G21" t="n">
-        <v>3.087984385994603</v>
+        <v>8.113890336998949</v>
       </c>
       <c r="H21" t="n">
-        <v>-1.579483953341611</v>
+        <v>-6.538449691780965</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-72.39402770996094</v>
+      </c>
+      <c r="D22" t="n">
+        <v>-27.50520896911621</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-27.84894561767578</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-1.87808840600416</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-1.777517291417992</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.215824003261815</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-8.723164558410645</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-8.500687599182129</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-15.66308975219727</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-4.240441676278492</v>
+      </c>
+      <c r="G23" t="n">
+        <v>2.87217904187515</v>
+      </c>
+      <c r="H23" t="n">
+        <v>8.334868672660862</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-7.880284786224365</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-21.83874320983887</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-8.497885704040527</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.2107466585311</v>
+      </c>
+      <c r="G24" t="n">
+        <v>12.91206166397641</v>
+      </c>
+      <c r="H24" t="n">
+        <v>-4.052727646764785</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-9.739827156066896</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.5102891325950623</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-2.436953544616699</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.8707238068140057</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-7.102825836988711</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.5642036477901016</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-2.781617164611816</v>
+      </c>
+      <c r="D26" t="n">
+        <v>10.22575092315674</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-2.437583446502685</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6.469962025529018</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-3.154151007992533</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-3.828252468865385</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>34.05283355712891</v>
+      </c>
+      <c r="D27" t="n">
+        <v>-58.47340393066406</v>
+      </c>
+      <c r="E27" t="n">
+        <v>20.97058296203613</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-1.114345516927603</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-1.64307104963562</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.5952699299951911</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-11.52477169036865</v>
+      </c>
+      <c r="D28" t="n">
+        <v>17.23179626464844</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-1.970066547393799</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-2.965141663992466</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-1.430339549081439</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1.28920519351959</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-24.07291412353516</v>
+      </c>
+      <c r="D29" t="n">
+        <v>-20.21802139282227</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-17.61478233337402</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-4.759042248326804</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-5.845142855518262</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-5.263579006762336</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>18.03611946105957</v>
+      </c>
+      <c r="D30" t="n">
+        <v>-66.51955413818359</v>
+      </c>
+      <c r="E30" t="n">
+        <v>48.28945922851562</v>
+      </c>
+      <c r="F30" t="n">
+        <v>3.102689377537001</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-4.462434116439107</v>
+      </c>
+      <c r="H30" t="n">
+        <v>5.959941364070088</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>walkingToRunning</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>12.77012634277344</v>
+      </c>
+      <c r="D31" t="n">
+        <v>6.439512729644775</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-10.52412605285644</v>
+      </c>
+      <c r="F31" t="n">
+        <v>3.054766318871562</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-4.391178798045361</v>
+      </c>
+      <c r="H31" t="n">
+        <v>1.19998335943338</v>
       </c>
     </row>
   </sheetData>
